--- a/modele/enveloppe.xlsx
+++ b/modele/enveloppe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project\action-21\reno-audit\modele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACC3151-FA92-4AAB-9EE8-0CF2931A6847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120D5EA6-E805-48B4-B80D-B12FE1816C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="907" xr2:uid="{BF4EE783-D743-4B41-B65A-54CFF4809DA7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="907" activeTab="5" xr2:uid="{BF4EE783-D743-4B41-B65A-54CFF4809DA7}"/>
   </bookViews>
   <sheets>
     <sheet name="modele" sheetId="51" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="196">
   <si>
     <t>description</t>
   </si>
@@ -622,6 +622,36 @@
   </si>
   <si>
     <t>Surface sud équivaleute</t>
+  </si>
+  <si>
+    <t>Mitoyennete</t>
+  </si>
+  <si>
+    <t>Extérieur</t>
+  </si>
+  <si>
+    <t>Paroi enterrée</t>
+  </si>
+  <si>
+    <t>Vide sanitaire</t>
+  </si>
+  <si>
+    <t>Terre-Plein</t>
+  </si>
+  <si>
+    <t>Sous-sol non chauffé</t>
+  </si>
+  <si>
+    <t>LOCAL_NON_CHAUFFE</t>
+  </si>
+  <si>
+    <t>Bâtiment ou local à usage autre que d'habitation</t>
+  </si>
+  <si>
+    <t>Local non déperditif (local à usage d'habitation chauffé)</t>
+  </si>
+  <si>
+    <t>Local non chauffé non accessible</t>
   </si>
 </sst>
 </file>
@@ -1038,8 +1068,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C5A333A-B290-4EBC-8FCA-0113CF098BEC}" name="enums" displayName="enums" ref="A1:D8" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="A1:D8" xr:uid="{1C5A333A-B290-4EBC-8FCA-0113CF098BEC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C5A333A-B290-4EBC-8FCA-0113CF098BEC}" name="enums" displayName="enums" ref="A1:D17" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A1:D17" xr:uid="{1C5A333A-B290-4EBC-8FCA-0113CF098BEC}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DFE290C0-589E-45FC-A679-E12359E47001}" name="enum" dataDxfId="26"/>
     <tableColumn id="2" xr3:uid="{C878CD3C-FE1C-48BF-9DDF-DD94D105A9F0}" name="const" dataDxfId="25"/>
@@ -1090,8 +1120,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B94D11F8-33DE-4C9C-892C-E50D8AC15EF3}" name="q4pa_conv" displayName="q4pa_conv" ref="A1:G15" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G15" xr:uid="{BB03FA39-82B2-4381-8FB0-100C441C4FBE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B94D11F8-33DE-4C9C-892C-E50D8AC15EF3}" name="q4pa_conv" displayName="q4pa_conv" ref="A1:G16" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G16" xr:uid="{BB03FA39-82B2-4381-8FB0-100C441C4FBE}"/>
   <tableColumns count="7">
     <tableColumn id="6" xr3:uid="{97A058DF-3ACC-4C21-9F17-823B50D74FC2}" name="type_batiment" dataDxfId="6"/>
     <tableColumn id="10" xr3:uid="{F6AE0D48-ABC0-4602-A9B1-E0F707A91516}" name="annee_construction[gte]" dataDxfId="5"/>
@@ -1404,7 +1434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AC5EB8-4E1B-422A-A77C-BC95BEA80FC3}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2957,10 +2987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF84603-719C-4183-853A-FAC07556FFDA}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3068,6 +3098,114 @@
         <v>4</v>
       </c>
       <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3322,10 +3460,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA70D12-1E1E-49E0-B920-78A8819114FF}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3370,6 +3508,9 @@
       <c r="C2" s="4">
         <v>1947</v>
       </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
       <c r="E2" s="4">
         <v>0</v>
       </c>
@@ -3387,37 +3528,31 @@
       <c r="C3" s="4">
         <v>1947</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
       <c r="F3" s="4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G3" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="4">
-        <v>1948</v>
-      </c>
       <c r="C4" s="4">
-        <v>1974</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
+        <v>1947</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="G4" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -3431,13 +3566,13 @@
         <v>1974</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G5" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -3445,16 +3580,19 @@
         <v>40</v>
       </c>
       <c r="B6" s="4">
-        <v>1975</v>
+        <v>1948</v>
       </c>
       <c r="C6" s="4">
-        <v>2005</v>
+        <v>1974</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
       </c>
       <c r="F6" s="4">
         <v>1.9</v>
       </c>
       <c r="G6" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -3462,16 +3600,16 @@
         <v>40</v>
       </c>
       <c r="B7" s="4">
-        <v>2006</v>
+        <v>1975</v>
       </c>
       <c r="C7" s="4">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="F7" s="4">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="G7" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -3479,30 +3617,30 @@
         <v>40</v>
       </c>
       <c r="B8" s="4">
-        <v>2013</v>
+        <v>2006</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2012</v>
       </c>
       <c r="F8" s="4">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="G8" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1947</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2013</v>
       </c>
       <c r="F9" s="4">
-        <v>4.5999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="G9" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -3512,14 +3650,17 @@
       <c r="C10" s="4">
         <v>1947</v>
       </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
       <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G10" s="4">
         <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -3529,37 +3670,31 @@
       <c r="C11" s="4">
         <v>1947</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
       <c r="F11" s="4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G11" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="4">
-        <v>1948</v>
-      </c>
       <c r="C12" s="4">
-        <v>1974</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
+        <v>1947</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G12" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -3573,13 +3708,13 @@
         <v>1974</v>
       </c>
       <c r="E13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="4">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="G13" s="4">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -3587,16 +3722,19 @@
         <v>41</v>
       </c>
       <c r="B14" s="4">
-        <v>1975</v>
+        <v>1948</v>
       </c>
       <c r="C14" s="4">
-        <v>1977</v>
+        <v>1974</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="G14" s="4">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -3604,17 +3742,31 @@
         <v>41</v>
       </c>
       <c r="B15" s="4">
+        <v>1975</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2012</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="4">
         <v>2013</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -3642,6 +3794,9 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
